--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 10/Lab 10.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 10/Lab 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99C07B9-7DC9-4AB8-B4A2-A42082AA2DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F56ED69-3E05-4895-A84C-43CAD5B980EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -76,11 +76,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +93,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -122,23 +128,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -422,20 +423,20 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F9" sqref="B8:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.2109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -450,7 +451,7 @@
       <c r="J1"/>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,23 +472,23 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>0.9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <f>ABS((D3-E3)/(B3-C3))</f>
         <v>24</v>
       </c>
@@ -496,21 +497,32 @@
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="F4" s="4" t="e">
+      <c r="B4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="2">
         <f>ABS((D4-E4)/(B4-C4))</f>
-        <v>#DIV/0!</v>
+        <v>47.755102040816325</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -523,7 +535,7 @@
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -538,7 +550,7 @@
       <c r="J6"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -559,23 +571,23 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>2.5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <f>ABS((D8-E8)/(B8-C8))</f>
         <v>5</v>
       </c>
@@ -583,22 +595,33 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="F9" s="4" t="e">
+      <c r="B9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.9344000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5344000000000002</v>
+      </c>
+      <c r="F9" s="2">
         <f>ABS((D9-E9)/(B9-C9))</f>
-        <v>#DIV/0!</v>
+        <v>4.2363050483351241</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11">
       <c r="A10"/>
-      <c r="B10"/>
+      <c r="B10" s="4"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -608,7 +631,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -620,7 +643,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -632,7 +655,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -644,7 +667,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>

--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 10/Lab 10.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 10/Lab 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F56ED69-3E05-4895-A84C-43CAD5B980EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E9EB5-D453-48FE-93EB-22CD36449D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Experiment 10.a Basic BJT Circuits without Emitter Resistor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>Experiment 10.b Basic BJT Circuits with Emitter Resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiment 10.c VTC Measurement of Multiple BJT Circuits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,10 +140,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -423,28 +427,28 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F9" sqref="B8:F9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.2109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -536,14 +540,14 @@
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -621,7 +625,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -632,57 +636,89 @@
       <c r="J10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="F13" s="2">
+        <f>ABS((D13-E13)/(B13-C13))</f>
+        <v>0.7</v>
+      </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <f>ABS((D14-E14)/(B14-C14))</f>
+        <v>0</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 10/Lab 10.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 10/Lab 10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E9EB5-D453-48FE-93EB-22CD36449D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD5195-27B8-48E7-AAA7-0D043A000CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A11" sqref="A11:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -533,7 +533,6 @@
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -548,7 +547,6 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -570,9 +568,6 @@
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11">
@@ -595,9 +590,9 @@
         <f>ABS((D8-E8)/(B8-C8))</f>
         <v>5</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -619,8 +614,8 @@
         <f>ABS((D9-E9)/(B9-C9))</f>
         <v>4.2363050483351241</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:11">
@@ -702,12 +697,20 @@
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <f>20/3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E14" s="2">
+        <f>10/3</f>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="F14" s="2">
         <f>ABS((D14-E14)/(B14-C14))</f>
-        <v>0</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>

--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 10/Lab 10.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 10/Lab 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD5195-27B8-48E7-AAA7-0D043A000CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414B235A-B321-48FF-9D71-4124789F8565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3936" yWindow="3936" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -427,16 +427,16 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F14"/>
+      <selection activeCell="B13" sqref="B13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.2109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
